--- a/info/인기TOP100_2024-03-28.xlsx
+++ b/info/인기TOP100_2024-03-28.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Syntex\따로 공부\info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1027,12 +1032,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1040,7 +1045,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1050,6 +1055,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1099,16 +1111,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1150,7 +1170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,9 +1202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1216,6 +1237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1391,14 +1413,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1435,7 +1465,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1455,7 +1485,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1475,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1495,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1515,7 +1545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1535,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1555,7 +1585,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1575,7 +1605,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1595,7 +1625,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1635,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1655,7 +1685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1675,7 +1705,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1695,7 +1725,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1715,7 +1745,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1735,7 +1765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1755,7 +1785,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1775,7 +1805,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1795,7 +1825,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1815,7 +1845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1855,7 +1885,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1872,7 +1902,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1892,7 +1922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1912,7 +1942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1932,7 +1962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1952,7 +1982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1972,7 +2002,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1992,7 +2022,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2012,7 +2042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2032,7 +2062,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2052,7 +2082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2072,7 +2102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2092,7 +2122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2112,7 +2142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2132,7 +2162,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2152,7 +2182,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2172,7 +2202,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2192,7 +2222,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2209,7 +2239,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2229,7 +2259,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2249,7 +2279,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2269,7 +2299,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2289,7 +2319,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2309,7 +2339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2329,7 +2359,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2349,7 +2379,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2369,7 +2399,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2389,7 +2419,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2409,7 +2439,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2429,7 +2459,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2466,7 +2496,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2486,7 +2516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2506,7 +2536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2523,7 +2553,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2543,7 +2573,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2563,7 +2593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2583,7 +2613,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2603,7 +2633,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2623,7 +2653,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2643,7 +2673,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2663,7 +2693,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2683,7 +2713,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2703,7 +2733,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2723,7 +2753,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2740,7 +2770,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2760,7 +2790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2780,7 +2810,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2800,7 +2830,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2820,7 +2850,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2840,7 +2870,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2860,7 +2890,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2880,7 +2910,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2900,7 +2930,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2920,7 +2950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2940,7 +2970,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2960,7 +2990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2980,7 +3010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3000,7 +3030,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3020,7 +3050,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3040,7 +3070,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3060,7 +3090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3080,7 +3110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3100,7 +3130,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3120,7 +3150,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3140,7 +3170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3160,7 +3190,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3180,7 +3210,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3200,7 +3230,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3220,7 +3250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3240,7 +3270,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3260,7 +3290,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3280,7 +3310,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3300,7 +3330,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3320,7 +3350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3340,7 +3370,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3360,7 +3390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3381,6 +3411,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
@@ -3483,5 +3514,6 @@
     <hyperlink ref="E100" r:id="rId99"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>